--- a/Ver2/Notion data/Chấm công SÓC TRĂNG.xlsx
+++ b/Ver2/Notion data/Chấm công SÓC TRĂNG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GB20"/>
+  <dimension ref="A1:GK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,165 +1191,210 @@
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 23.select.id</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 23.select.name</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 23.select.color</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 7.select.id</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.name</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.color</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select.id</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select.name</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select.color</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.id</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.name</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.color</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.id</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.name</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.color</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.id</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.name</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.color</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.id</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.name</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.color</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.id</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.name</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.color</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.id</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.name</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.color</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.id</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.name</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select.color</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.id</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.name</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.color</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1363,17 +1408,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>55c64dd1-6430-4fb1-a18d-9a6e393e7500</t>
+          <t>9e8411b7-b8cd-456f-9ddb-36a0a43edb41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-24T15:29:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-08T16:53:00.000Z</t>
+          <t>2024-07-24T15:29:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1386,7 +1431,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55c64dd164304fb1a18d9a6e393e7500</t>
+          <t>https://www.notion.so/9e8411b7b8cd456f9ddb36a0a43edb41</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -1520,7 +1565,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
+          <t>[{'id': '3db76400-46c0-4adb-9d9c-51542f2de2f9'}]</t>
         </is>
       </c>
       <c r="AR2" t="b">
@@ -1882,6 +1927,15 @@
       <c r="FZ2" t="inlineStr"/>
       <c r="GA2" t="inlineStr"/>
       <c r="GB2" t="inlineStr"/>
+      <c r="GC2" t="inlineStr"/>
+      <c r="GD2" t="inlineStr"/>
+      <c r="GE2" t="inlineStr"/>
+      <c r="GF2" t="inlineStr"/>
+      <c r="GG2" t="inlineStr"/>
+      <c r="GH2" t="inlineStr"/>
+      <c r="GI2" t="inlineStr"/>
+      <c r="GJ2" t="inlineStr"/>
+      <c r="GK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1891,17 +1945,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ac688d14-46a4-4003-b47e-ff5d1ae78d3f</t>
+          <t>c4a1581f-1c77-405f-a2f4-d2aefc80e921</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-24T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-24T15:29:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1914,7 +1968,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ac688d1446a44003b47eff5d1ae78d3f</t>
+          <t>https://www.notion.so/c4a1581f1c77405fa2f4d2aefc80e921</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -2048,7 +2102,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
+          <t>[{'id': '35f44955-2223-488a-8274-8db6f726d9f7'}]</t>
         </is>
       </c>
       <c r="AR3" t="b">
@@ -2410,6 +2464,15 @@
       <c r="FZ3" t="inlineStr"/>
       <c r="GA3" t="inlineStr"/>
       <c r="GB3" t="inlineStr"/>
+      <c r="GC3" t="inlineStr"/>
+      <c r="GD3" t="inlineStr"/>
+      <c r="GE3" t="inlineStr"/>
+      <c r="GF3" t="inlineStr"/>
+      <c r="GG3" t="inlineStr"/>
+      <c r="GH3" t="inlineStr"/>
+      <c r="GI3" t="inlineStr"/>
+      <c r="GJ3" t="inlineStr"/>
+      <c r="GK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2419,7 +2482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d8f3e9b4-b311-4949-9c5c-eea8a6be5c26</t>
+          <t>55c64dd1-6430-4fb1-a18d-9a6e393e7500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2429,7 +2492,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-08T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2442,7 +2505,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/d8f3e9b4b31149499c5ceea8a6be5c26</t>
+          <t>https://www.notion.so/55c64dd164304fb1a18d9a6e393e7500</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -2576,7 +2639,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
+          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
         </is>
       </c>
       <c r="AR4" t="b">
@@ -2938,6 +3001,15 @@
       <c r="FZ4" t="inlineStr"/>
       <c r="GA4" t="inlineStr"/>
       <c r="GB4" t="inlineStr"/>
+      <c r="GC4" t="inlineStr"/>
+      <c r="GD4" t="inlineStr"/>
+      <c r="GE4" t="inlineStr"/>
+      <c r="GF4" t="inlineStr"/>
+      <c r="GG4" t="inlineStr"/>
+      <c r="GH4" t="inlineStr"/>
+      <c r="GI4" t="inlineStr"/>
+      <c r="GJ4" t="inlineStr"/>
+      <c r="GK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2947,7 +3019,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a59f4f48-5e46-4827-bc32-cf235c11c41a</t>
+          <t>ac688d14-46a4-4003-b47e-ff5d1ae78d3f</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2957,7 +3029,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-22T03:41:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -2970,7 +3042,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/a59f4f485e464827bc32cf235c11c41a</t>
+          <t>https://www.notion.so/ac688d1446a44003b47eff5d1ae78d3f</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -2991,7 +3063,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -3104,7 +3176,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
+          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
         </is>
       </c>
       <c r="AR5" t="b">
@@ -3369,7 +3441,7 @@
       </c>
       <c r="DJ5" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK5" t="inlineStr">
@@ -3403,321 +3475,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FW5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FX5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FY5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FZ5" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA5" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB5" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="inlineStr"/>
+      <c r="ET5" t="inlineStr"/>
+      <c r="EU5" t="inlineStr"/>
+      <c r="EV5" t="inlineStr"/>
+      <c r="EW5" t="inlineStr"/>
+      <c r="EX5" t="inlineStr"/>
+      <c r="EY5" t="inlineStr"/>
+      <c r="EZ5" t="inlineStr"/>
+      <c r="FA5" t="inlineStr"/>
+      <c r="FB5" t="inlineStr"/>
+      <c r="FC5" t="inlineStr"/>
+      <c r="FD5" t="inlineStr"/>
+      <c r="FE5" t="inlineStr"/>
+      <c r="FF5" t="inlineStr"/>
+      <c r="FG5" t="inlineStr"/>
+      <c r="FH5" t="inlineStr"/>
+      <c r="FI5" t="inlineStr"/>
+      <c r="FJ5" t="inlineStr"/>
+      <c r="FK5" t="inlineStr"/>
+      <c r="FL5" t="inlineStr"/>
+      <c r="FM5" t="inlineStr"/>
+      <c r="FN5" t="inlineStr"/>
+      <c r="FO5" t="inlineStr"/>
+      <c r="FP5" t="inlineStr"/>
+      <c r="FQ5" t="inlineStr"/>
+      <c r="FR5" t="inlineStr"/>
+      <c r="FS5" t="inlineStr"/>
+      <c r="FT5" t="inlineStr"/>
+      <c r="FU5" t="inlineStr"/>
+      <c r="FV5" t="inlineStr"/>
+      <c r="FW5" t="inlineStr"/>
+      <c r="FX5" t="inlineStr"/>
+      <c r="FY5" t="inlineStr"/>
+      <c r="FZ5" t="inlineStr"/>
+      <c r="GA5" t="inlineStr"/>
+      <c r="GB5" t="inlineStr"/>
+      <c r="GC5" t="inlineStr"/>
+      <c r="GD5" t="inlineStr"/>
+      <c r="GE5" t="inlineStr"/>
+      <c r="GF5" t="inlineStr"/>
+      <c r="GG5" t="inlineStr"/>
+      <c r="GH5" t="inlineStr"/>
+      <c r="GI5" t="inlineStr"/>
+      <c r="GJ5" t="inlineStr"/>
+      <c r="GK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3727,7 +3556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4aa88934-1658-4a3f-ba04-0b2d122eb431</t>
+          <t>d8f3e9b4-b311-4949-9c5c-eea8a6be5c26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3750,7 +3579,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4aa8893416584a3fba040b2d122eb431</t>
+          <t>https://www.notion.so/d8f3e9b4b31149499c5ceea8a6be5c26</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -3884,7 +3713,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
+          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
         </is>
       </c>
       <c r="AR6" t="b">
@@ -4246,6 +4075,15 @@
       <c r="FZ6" t="inlineStr"/>
       <c r="GA6" t="inlineStr"/>
       <c r="GB6" t="inlineStr"/>
+      <c r="GC6" t="inlineStr"/>
+      <c r="GD6" t="inlineStr"/>
+      <c r="GE6" t="inlineStr"/>
+      <c r="GF6" t="inlineStr"/>
+      <c r="GG6" t="inlineStr"/>
+      <c r="GH6" t="inlineStr"/>
+      <c r="GI6" t="inlineStr"/>
+      <c r="GJ6" t="inlineStr"/>
+      <c r="GK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4255,7 +4093,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>569198e0-9c07-4f06-bd01-1918776a0ff0</t>
+          <t>a59f4f48-5e46-4827-bc32-cf235c11c41a</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4265,7 +4103,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-24T15:48:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -4278,7 +4116,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/569198e09c074f06bd011918776a0ff0</t>
+          <t>https://www.notion.so/a59f4f485e464827bc32cf235c11c41a</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -4299,7 +4137,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -4412,7 +4250,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
+          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
         </is>
       </c>
       <c r="AR7" t="b">
@@ -4711,69 +4549,366 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR7" t="inlineStr"/>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="inlineStr"/>
-      <c r="DU7" t="inlineStr"/>
-      <c r="DV7" t="inlineStr"/>
-      <c r="DW7" t="inlineStr"/>
-      <c r="DX7" t="inlineStr"/>
-      <c r="DY7" t="inlineStr"/>
-      <c r="DZ7" t="inlineStr"/>
-      <c r="EA7" t="inlineStr"/>
-      <c r="EB7" t="inlineStr"/>
-      <c r="EC7" t="inlineStr"/>
-      <c r="ED7" t="inlineStr"/>
-      <c r="EE7" t="inlineStr"/>
-      <c r="EF7" t="inlineStr"/>
-      <c r="EG7" t="inlineStr"/>
-      <c r="EH7" t="inlineStr"/>
-      <c r="EI7" t="inlineStr"/>
-      <c r="EJ7" t="inlineStr"/>
-      <c r="EK7" t="inlineStr"/>
-      <c r="EL7" t="inlineStr"/>
-      <c r="EM7" t="inlineStr"/>
-      <c r="EN7" t="inlineStr"/>
-      <c r="EO7" t="inlineStr"/>
-      <c r="EP7" t="inlineStr"/>
-      <c r="EQ7" t="inlineStr"/>
-      <c r="ER7" t="inlineStr"/>
-      <c r="ES7" t="inlineStr"/>
-      <c r="ET7" t="inlineStr"/>
-      <c r="EU7" t="inlineStr"/>
-      <c r="EV7" t="inlineStr"/>
-      <c r="EW7" t="inlineStr"/>
-      <c r="EX7" t="inlineStr"/>
-      <c r="EY7" t="inlineStr"/>
-      <c r="EZ7" t="inlineStr"/>
-      <c r="FA7" t="inlineStr"/>
-      <c r="FB7" t="inlineStr"/>
-      <c r="FC7" t="inlineStr"/>
-      <c r="FD7" t="inlineStr"/>
-      <c r="FE7" t="inlineStr"/>
-      <c r="FF7" t="inlineStr"/>
-      <c r="FG7" t="inlineStr"/>
-      <c r="FH7" t="inlineStr"/>
-      <c r="FI7" t="inlineStr"/>
-      <c r="FJ7" t="inlineStr"/>
-      <c r="FK7" t="inlineStr"/>
-      <c r="FL7" t="inlineStr"/>
-      <c r="FM7" t="inlineStr"/>
-      <c r="FN7" t="inlineStr"/>
-      <c r="FO7" t="inlineStr"/>
-      <c r="FP7" t="inlineStr"/>
-      <c r="FQ7" t="inlineStr"/>
-      <c r="FR7" t="inlineStr"/>
-      <c r="FS7" t="inlineStr"/>
-      <c r="FT7" t="inlineStr"/>
-      <c r="FU7" t="inlineStr"/>
-      <c r="FV7" t="inlineStr"/>
-      <c r="FW7" t="inlineStr"/>
-      <c r="FX7" t="inlineStr"/>
-      <c r="FY7" t="inlineStr"/>
-      <c r="FZ7" t="inlineStr"/>
-      <c r="GA7" t="inlineStr"/>
-      <c r="GB7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ7" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4783,17 +4918,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>b2b3b7da-aaba-49c3-a279-2a829d314b7d</t>
+          <t>4aa88934-1658-4a3f-ba04-0b2d122eb431</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -4806,7 +4941,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/b2b3b7daaaba49c3a2792a829d314b7d</t>
+          <t>https://www.notion.so/4aa8893416584a3fba040b2d122eb431</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -4940,7 +5075,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
+          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
         </is>
       </c>
       <c r="AR8" t="b">
@@ -5205,7 +5340,7 @@
       </c>
       <c r="DJ8" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK8" t="inlineStr">
@@ -5302,6 +5437,15 @@
       <c r="FZ8" t="inlineStr"/>
       <c r="GA8" t="inlineStr"/>
       <c r="GB8" t="inlineStr"/>
+      <c r="GC8" t="inlineStr"/>
+      <c r="GD8" t="inlineStr"/>
+      <c r="GE8" t="inlineStr"/>
+      <c r="GF8" t="inlineStr"/>
+      <c r="GG8" t="inlineStr"/>
+      <c r="GH8" t="inlineStr"/>
+      <c r="GI8" t="inlineStr"/>
+      <c r="GJ8" t="inlineStr"/>
+      <c r="GK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5311,17 +5455,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3ab85018-df13-41b4-80bb-c0e4bacf9b84</t>
+          <t>569198e0-9c07-4f06-bd01-1918776a0ff0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-22T03:41:00.000Z</t>
+          <t>2024-07-24T15:27:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -5334,7 +5478,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3ab85018df1341b480bbc0e4bacf9b84</t>
+          <t>https://www.notion.so/569198e09c074f06bd011918776a0ff0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -5355,7 +5499,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -5468,7 +5612,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
         </is>
       </c>
       <c r="AR9" t="b">
@@ -5799,17 +5943,17 @@
       </c>
       <c r="DX9" t="inlineStr">
         <is>
-          <t>ruIx</t>
+          <t>DjwF</t>
         </is>
       </c>
       <c r="DY9" t="inlineStr">
         <is>
-          <t>Nghỉ không phép</t>
+          <t>Đầy đủ</t>
         </is>
       </c>
       <c r="DZ9" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="EA9" t="inlineStr">
@@ -5874,32 +6018,32 @@
       </c>
       <c r="EM9" t="inlineStr">
         <is>
-          <t>ISy_</t>
+          <t>DjwF</t>
         </is>
       </c>
       <c r="EN9" t="inlineStr">
         <is>
-          <t>Nửa ngày</t>
+          <t>Đầy đủ</t>
         </is>
       </c>
       <c r="EO9" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="EP9" t="inlineStr">
         <is>
-          <t>I_rY</t>
+          <t>DjwF</t>
         </is>
       </c>
       <c r="EQ9" t="inlineStr">
         <is>
-          <t>Nửa ngày</t>
+          <t>Đầy đủ</t>
         </is>
       </c>
       <c r="ER9" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="ES9" t="inlineStr">
@@ -6069,17 +6213,62 @@
       </c>
       <c r="FZ9" t="inlineStr">
         <is>
-          <t>IzRg</t>
+          <t>DjwF</t>
         </is>
       </c>
       <c r="GA9" t="inlineStr">
         <is>
-          <t>Nửa ngày</t>
+          <t>Đầy đủ</t>
         </is>
       </c>
       <c r="GB9" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK9" t="inlineStr">
+        <is>
+          <t>pink</t>
         </is>
       </c>
     </row>
@@ -6091,17 +6280,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76971ddb-a552-4fbb-a927-0ed1be0621da</t>
+          <t>b2b3b7da-aaba-49c3-a279-2a829d314b7d</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -6114,7 +6303,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76971ddba5524fbba9270ed1be0621da</t>
+          <t>https://www.notion.so/b2b3b7daaaba49c3a2792a829d314b7d</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -6248,7 +6437,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
+          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
         </is>
       </c>
       <c r="AR10" t="b">
@@ -6610,6 +6799,15 @@
       <c r="FZ10" t="inlineStr"/>
       <c r="GA10" t="inlineStr"/>
       <c r="GB10" t="inlineStr"/>
+      <c r="GC10" t="inlineStr"/>
+      <c r="GD10" t="inlineStr"/>
+      <c r="GE10" t="inlineStr"/>
+      <c r="GF10" t="inlineStr"/>
+      <c r="GG10" t="inlineStr"/>
+      <c r="GH10" t="inlineStr"/>
+      <c r="GI10" t="inlineStr"/>
+      <c r="GJ10" t="inlineStr"/>
+      <c r="GK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6619,7 +6817,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8283ffd4-4a9b-4e07-863c-f03e6e89e0fa</t>
+          <t>3ab85018-df13-41b4-80bb-c0e4bacf9b84</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6629,7 +6827,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-22T03:41:00.000Z</t>
+          <t>2024-07-24T15:48:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -6642,7 +6840,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8283ffd44a9b4e07863cf03e6e89e0fa</t>
+          <t>https://www.notion.so/3ab85018df1341b480bbc0e4bacf9b84</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -6776,7 +6974,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
+          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
         </is>
       </c>
       <c r="AR11" t="b">
@@ -7107,287 +7305,332 @@
       </c>
       <c r="DX11" t="inlineStr">
         <is>
+          <t>ruIx</t>
+        </is>
+      </c>
+      <c r="DY11" t="inlineStr">
+        <is>
+          <t>Nghỉ không phép</t>
+        </is>
+      </c>
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="EA11" t="inlineStr">
+        <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DY11" t="inlineStr">
+      <c r="EB11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DZ11" t="inlineStr">
+      <c r="EC11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EA11" t="inlineStr">
+      <c r="ED11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EB11" t="inlineStr">
+      <c r="EE11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EC11" t="inlineStr">
+      <c r="EF11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="ED11" t="inlineStr">
+      <c r="EG11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EE11" t="inlineStr">
+      <c r="EH11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EF11" t="inlineStr">
+      <c r="EI11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EG11" t="inlineStr">
+      <c r="EJ11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EH11" t="inlineStr">
+      <c r="EK11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EI11" t="inlineStr">
+      <c r="EL11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EJ11" t="inlineStr">
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>ISy_</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t>I_rY</t>
+        </is>
+      </c>
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="ES11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EK11" t="inlineStr">
+      <c r="ET11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EL11" t="inlineStr">
+      <c r="EU11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EM11" t="inlineStr">
+      <c r="EV11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EN11" t="inlineStr">
+      <c r="EW11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EO11" t="inlineStr">
+      <c r="EX11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EP11" t="inlineStr">
+      <c r="EY11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EQ11" t="inlineStr">
+      <c r="EZ11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="ER11" t="inlineStr">
+      <c r="FA11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="ES11" t="inlineStr">
+      <c r="FB11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="ET11" t="inlineStr">
+      <c r="FC11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EU11" t="inlineStr">
+      <c r="FD11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EV11" t="inlineStr">
+      <c r="FE11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EW11" t="inlineStr">
+      <c r="FF11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EX11" t="inlineStr">
+      <c r="FG11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EY11" t="inlineStr">
+      <c r="FH11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EZ11" t="inlineStr">
+      <c r="FI11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FA11" t="inlineStr">
+      <c r="FJ11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FB11" t="inlineStr">
+      <c r="FK11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FC11" t="inlineStr">
+      <c r="FL11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FD11" t="inlineStr">
+      <c r="FM11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FE11" t="inlineStr">
+      <c r="FN11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF11" t="inlineStr">
+      <c r="FO11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG11" t="inlineStr">
+      <c r="FP11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FH11" t="inlineStr">
+      <c r="FQ11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI11" t="inlineStr">
+      <c r="FR11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ11" t="inlineStr">
+      <c r="FS11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK11" t="inlineStr">
+      <c r="FT11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL11" t="inlineStr">
+      <c r="FU11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM11" t="inlineStr">
+      <c r="FV11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN11" t="inlineStr">
+      <c r="FW11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO11" t="inlineStr">
+      <c r="FX11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP11" t="inlineStr">
+      <c r="FY11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ11" t="inlineStr">
+      <c r="FZ11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR11" t="inlineStr">
+      <c r="GA11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS11" t="inlineStr">
+      <c r="GB11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FT11" t="inlineStr">
+      <c r="GC11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FU11" t="inlineStr">
+      <c r="GD11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FV11" t="inlineStr">
+      <c r="GE11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FW11" t="inlineStr">
+      <c r="GF11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FX11" t="inlineStr">
+      <c r="GG11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FY11" t="inlineStr">
+      <c r="GH11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FZ11" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA11" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB11" t="inlineStr">
-        <is>
-          <t>pink</t>
+      <c r="GI11" t="inlineStr">
+        <is>
+          <t>IzRg</t>
+        </is>
+      </c>
+      <c r="GJ11" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="GK11" t="inlineStr">
+        <is>
+          <t>yellow</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7642,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cff39a6c-a1c3-4dbd-bf53-21701351c2ed</t>
+          <t>76971ddb-a552-4fbb-a927-0ed1be0621da</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7422,7 +7665,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/cff39a6ca1c34dbdbf5321701351c2ed</t>
+          <t>https://www.notion.so/76971ddba5524fbba9270ed1be0621da</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -7556,7 +7799,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
+          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
         </is>
       </c>
       <c r="AR12" t="b">
@@ -7821,7 +8064,7 @@
       </c>
       <c r="DJ12" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK12" t="inlineStr">
@@ -7918,6 +8161,15 @@
       <c r="FZ12" t="inlineStr"/>
       <c r="GA12" t="inlineStr"/>
       <c r="GB12" t="inlineStr"/>
+      <c r="GC12" t="inlineStr"/>
+      <c r="GD12" t="inlineStr"/>
+      <c r="GE12" t="inlineStr"/>
+      <c r="GF12" t="inlineStr"/>
+      <c r="GG12" t="inlineStr"/>
+      <c r="GH12" t="inlineStr"/>
+      <c r="GI12" t="inlineStr"/>
+      <c r="GJ12" t="inlineStr"/>
+      <c r="GK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7927,7 +8179,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0ea3a596-a391-4e49-9bcf-3f1a1b210bee</t>
+          <t>8283ffd4-4a9b-4e07-863c-f03e6e89e0fa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7937,7 +8189,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-22T03:40:00.000Z</t>
+          <t>2024-07-24T15:48:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -7950,7 +8202,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/0ea3a596a3914e499bcf3f1a1b210bee</t>
+          <t>https://www.notion.so/8283ffd44a9b4e07863cf03e6e89e0fa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -8084,7 +8336,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
+          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
         </is>
       </c>
       <c r="AR13" t="b">
@@ -8349,7 +8601,7 @@
       </c>
       <c r="DJ13" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK13" t="inlineStr">
@@ -8383,9 +8635,21 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr"/>
-      <c r="DT13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="DU13" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -8401,21 +8665,81 @@
           <t>pink</t>
         </is>
       </c>
-      <c r="DX13" t="inlineStr"/>
-      <c r="DY13" t="inlineStr"/>
-      <c r="DZ13" t="inlineStr"/>
-      <c r="EA13" t="inlineStr"/>
-      <c r="EB13" t="inlineStr"/>
-      <c r="EC13" t="inlineStr"/>
-      <c r="ED13" t="inlineStr"/>
-      <c r="EE13" t="inlineStr"/>
-      <c r="EF13" t="inlineStr"/>
-      <c r="EG13" t="inlineStr"/>
-      <c r="EH13" t="inlineStr"/>
-      <c r="EI13" t="inlineStr"/>
-      <c r="EJ13" t="inlineStr"/>
-      <c r="EK13" t="inlineStr"/>
-      <c r="EL13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="EM13" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -8431,42 +8755,186 @@
           <t>pink</t>
         </is>
       </c>
-      <c r="EP13" t="inlineStr"/>
-      <c r="EQ13" t="inlineStr"/>
-      <c r="ER13" t="inlineStr"/>
-      <c r="ES13" t="inlineStr"/>
-      <c r="ET13" t="inlineStr"/>
-      <c r="EU13" t="inlineStr"/>
-      <c r="EV13" t="inlineStr"/>
-      <c r="EW13" t="inlineStr"/>
-      <c r="EX13" t="inlineStr"/>
-      <c r="EY13" t="inlineStr"/>
-      <c r="EZ13" t="inlineStr"/>
-      <c r="FA13" t="inlineStr"/>
-      <c r="FB13" t="inlineStr"/>
-      <c r="FC13" t="inlineStr"/>
-      <c r="FD13" t="inlineStr"/>
-      <c r="FE13" t="inlineStr"/>
-      <c r="FF13" t="inlineStr"/>
-      <c r="FG13" t="inlineStr"/>
-      <c r="FH13" t="inlineStr"/>
-      <c r="FI13" t="inlineStr"/>
-      <c r="FJ13" t="inlineStr"/>
-      <c r="FK13" t="inlineStr"/>
-      <c r="FL13" t="inlineStr"/>
-      <c r="FM13" t="inlineStr"/>
-      <c r="FN13" t="inlineStr"/>
-      <c r="FO13" t="inlineStr"/>
-      <c r="FP13" t="inlineStr"/>
-      <c r="FQ13" t="inlineStr"/>
-      <c r="FR13" t="inlineStr"/>
-      <c r="FS13" t="inlineStr"/>
-      <c r="FT13" t="inlineStr"/>
-      <c r="FU13" t="inlineStr"/>
-      <c r="FV13" t="inlineStr"/>
-      <c r="FW13" t="inlineStr"/>
-      <c r="FX13" t="inlineStr"/>
-      <c r="FY13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FZ13" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -8478,6 +8946,51 @@
         </is>
       </c>
       <c r="GB13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GG13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GH13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GI13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -8491,7 +9004,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46ce4346-5796-4086-a680-e30f35b1cf88</t>
+          <t>cff39a6c-a1c3-4dbd-bf53-21701351c2ed</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8514,7 +9027,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46ce434657964086a680e30f35b1cf88</t>
+          <t>https://www.notion.so/cff39a6ca1c34dbdbf5321701351c2ed</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -8648,7 +9161,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
+          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
         </is>
       </c>
       <c r="AR14" t="b">
@@ -9010,6 +9523,15 @@
       <c r="FZ14" t="inlineStr"/>
       <c r="GA14" t="inlineStr"/>
       <c r="GB14" t="inlineStr"/>
+      <c r="GC14" t="inlineStr"/>
+      <c r="GD14" t="inlineStr"/>
+      <c r="GE14" t="inlineStr"/>
+      <c r="GF14" t="inlineStr"/>
+      <c r="GG14" t="inlineStr"/>
+      <c r="GH14" t="inlineStr"/>
+      <c r="GI14" t="inlineStr"/>
+      <c r="GJ14" t="inlineStr"/>
+      <c r="GK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9019,7 +9541,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9da092fb-e107-4b58-9105-22caaa25853c</t>
+          <t>0ea3a596-a391-4e49-9bcf-3f1a1b210bee</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9029,7 +9551,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-22T03:40:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -9042,7 +9564,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9da092fbe1074b58910522caaa25853c</t>
+          <t>https://www.notion.so/0ea3a596a3914e499bcf3f1a1b210bee</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -9063,7 +9585,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -9176,7 +9698,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
+          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
         </is>
       </c>
       <c r="AR15" t="b">
@@ -9441,7 +9963,7 @@
       </c>
       <c r="DJ15" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK15" t="inlineStr">
@@ -9478,9 +10000,21 @@
       <c r="DR15" t="inlineStr"/>
       <c r="DS15" t="inlineStr"/>
       <c r="DT15" t="inlineStr"/>
-      <c r="DU15" t="inlineStr"/>
-      <c r="DV15" t="inlineStr"/>
-      <c r="DW15" t="inlineStr"/>
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="DX15" t="inlineStr"/>
       <c r="DY15" t="inlineStr"/>
       <c r="DZ15" t="inlineStr"/>
@@ -9496,9 +10030,21 @@
       <c r="EJ15" t="inlineStr"/>
       <c r="EK15" t="inlineStr"/>
       <c r="EL15" t="inlineStr"/>
-      <c r="EM15" t="inlineStr"/>
-      <c r="EN15" t="inlineStr"/>
-      <c r="EO15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="EP15" t="inlineStr"/>
       <c r="EQ15" t="inlineStr"/>
       <c r="ER15" t="inlineStr"/>
@@ -9538,6 +10084,27 @@
       <c r="FZ15" t="inlineStr"/>
       <c r="GA15" t="inlineStr"/>
       <c r="GB15" t="inlineStr"/>
+      <c r="GC15" t="inlineStr"/>
+      <c r="GD15" t="inlineStr"/>
+      <c r="GE15" t="inlineStr"/>
+      <c r="GF15" t="inlineStr"/>
+      <c r="GG15" t="inlineStr"/>
+      <c r="GH15" t="inlineStr"/>
+      <c r="GI15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9547,7 +10114,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bedf0744-47fa-46bd-8131-f1a5cf03b8f1</t>
+          <t>46ce4346-5796-4086-a680-e30f35b1cf88</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9570,7 +10137,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/bedf074447fa46bd8131f1a5cf03b8f1</t>
+          <t>https://www.notion.so/46ce434657964086a680e30f35b1cf88</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -9704,7 +10271,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
+          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
         </is>
       </c>
       <c r="AR16" t="b">
@@ -9969,7 +10536,7 @@
       </c>
       <c r="DJ16" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK16" t="inlineStr">
@@ -10066,6 +10633,15 @@
       <c r="FZ16" t="inlineStr"/>
       <c r="GA16" t="inlineStr"/>
       <c r="GB16" t="inlineStr"/>
+      <c r="GC16" t="inlineStr"/>
+      <c r="GD16" t="inlineStr"/>
+      <c r="GE16" t="inlineStr"/>
+      <c r="GF16" t="inlineStr"/>
+      <c r="GG16" t="inlineStr"/>
+      <c r="GH16" t="inlineStr"/>
+      <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="inlineStr"/>
+      <c r="GK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10075,7 +10651,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e55ac8a0-ddb9-4c28-a8ba-f4b6b6bf3d16</t>
+          <t>9da092fb-e107-4b58-9105-22caaa25853c</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10085,7 +10661,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-22T03:41:00.000Z</t>
+          <t>2024-07-02T18:03:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -10098,7 +10674,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/e55ac8a0ddb94c28a8baf4b6b6bf3d16</t>
+          <t>https://www.notion.so/9da092fbe1074b58910522caaa25853c</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -10119,7 +10695,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -10232,7 +10808,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
+          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
         </is>
       </c>
       <c r="AR17" t="b">
@@ -10497,7 +11073,7 @@
       </c>
       <c r="DJ17" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK17" t="inlineStr">
@@ -10531,261 +11107,78 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr"/>
+      <c r="DT17" t="inlineStr"/>
       <c r="DU17" t="inlineStr"/>
       <c r="DV17" t="inlineStr"/>
       <c r="DW17" t="inlineStr"/>
-      <c r="DX17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DX17" t="inlineStr"/>
+      <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr"/>
+      <c r="EA17" t="inlineStr"/>
+      <c r="EB17" t="inlineStr"/>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr"/>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr"/>
       <c r="EG17" t="inlineStr"/>
       <c r="EH17" t="inlineStr"/>
       <c r="EI17" t="inlineStr"/>
-      <c r="EJ17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr"/>
+      <c r="EP17" t="inlineStr"/>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
       <c r="ES17" t="inlineStr"/>
       <c r="ET17" t="inlineStr"/>
       <c r="EU17" t="inlineStr"/>
-      <c r="EV17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="EV17" t="inlineStr"/>
+      <c r="EW17" t="inlineStr"/>
+      <c r="EX17" t="inlineStr"/>
       <c r="EY17" t="inlineStr"/>
       <c r="EZ17" t="inlineStr"/>
       <c r="FA17" t="inlineStr"/>
-      <c r="FB17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FT17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FU17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FV17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="FB17" t="inlineStr"/>
+      <c r="FC17" t="inlineStr"/>
+      <c r="FD17" t="inlineStr"/>
+      <c r="FE17" t="inlineStr"/>
+      <c r="FF17" t="inlineStr"/>
+      <c r="FG17" t="inlineStr"/>
+      <c r="FH17" t="inlineStr"/>
+      <c r="FI17" t="inlineStr"/>
+      <c r="FJ17" t="inlineStr"/>
+      <c r="FK17" t="inlineStr"/>
+      <c r="FL17" t="inlineStr"/>
+      <c r="FM17" t="inlineStr"/>
+      <c r="FN17" t="inlineStr"/>
+      <c r="FO17" t="inlineStr"/>
+      <c r="FP17" t="inlineStr"/>
+      <c r="FQ17" t="inlineStr"/>
+      <c r="FR17" t="inlineStr"/>
+      <c r="FS17" t="inlineStr"/>
+      <c r="FT17" t="inlineStr"/>
+      <c r="FU17" t="inlineStr"/>
+      <c r="FV17" t="inlineStr"/>
       <c r="FW17" t="inlineStr"/>
       <c r="FX17" t="inlineStr"/>
       <c r="FY17" t="inlineStr"/>
-      <c r="FZ17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="GA17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="GB17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="FZ17" t="inlineStr"/>
+      <c r="GA17" t="inlineStr"/>
+      <c r="GB17" t="inlineStr"/>
+      <c r="GC17" t="inlineStr"/>
+      <c r="GD17" t="inlineStr"/>
+      <c r="GE17" t="inlineStr"/>
+      <c r="GF17" t="inlineStr"/>
+      <c r="GG17" t="inlineStr"/>
+      <c r="GH17" t="inlineStr"/>
+      <c r="GI17" t="inlineStr"/>
+      <c r="GJ17" t="inlineStr"/>
+      <c r="GK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10795,7 +11188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ecb983da-61da-441e-9421-a71397f30b95</t>
+          <t>bedf0744-47fa-46bd-8131-f1a5cf03b8f1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10818,7 +11211,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ecb983da61da441e9421a71397f30b95</t>
+          <t>https://www.notion.so/bedf074447fa46bd8131f1a5cf03b8f1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -10952,7 +11345,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
         </is>
       </c>
       <c r="AR18" t="b">
@@ -11217,7 +11610,7 @@
       </c>
       <c r="DJ18" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK18" t="inlineStr">
@@ -11314,6 +11707,15 @@
       <c r="FZ18" t="inlineStr"/>
       <c r="GA18" t="inlineStr"/>
       <c r="GB18" t="inlineStr"/>
+      <c r="GC18" t="inlineStr"/>
+      <c r="GD18" t="inlineStr"/>
+      <c r="GE18" t="inlineStr"/>
+      <c r="GF18" t="inlineStr"/>
+      <c r="GG18" t="inlineStr"/>
+      <c r="GH18" t="inlineStr"/>
+      <c r="GI18" t="inlineStr"/>
+      <c r="GJ18" t="inlineStr"/>
+      <c r="GK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11323,7 +11725,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>f97afc18-a5a7-4d4f-a4b4-d5fb7237d715</t>
+          <t>e55ac8a0-ddb9-4c28-a8ba-f4b6b6bf3d16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -11333,7 +11735,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-02T18:03:00.000Z</t>
+          <t>2024-07-24T15:48:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -11346,7 +11748,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/f97afc18a5a74d4fa4b4d5fb7237d715</t>
+          <t>https://www.notion.so/e55ac8a0ddb94c28a8baf4b6b6bf3d16</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -11367,7 +11769,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -11480,7 +11882,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
         </is>
       </c>
       <c r="AR19" t="b">
@@ -11745,7 +12147,7 @@
       </c>
       <c r="DJ19" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK19" t="inlineStr">
@@ -11779,69 +12181,306 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR19" t="inlineStr"/>
-      <c r="DS19" t="inlineStr"/>
-      <c r="DT19" t="inlineStr"/>
+      <c r="DR19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="DU19" t="inlineStr"/>
       <c r="DV19" t="inlineStr"/>
       <c r="DW19" t="inlineStr"/>
-      <c r="DX19" t="inlineStr"/>
-      <c r="DY19" t="inlineStr"/>
-      <c r="DZ19" t="inlineStr"/>
-      <c r="EA19" t="inlineStr"/>
-      <c r="EB19" t="inlineStr"/>
-      <c r="EC19" t="inlineStr"/>
-      <c r="ED19" t="inlineStr"/>
-      <c r="EE19" t="inlineStr"/>
-      <c r="EF19" t="inlineStr"/>
+      <c r="DX19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="EG19" t="inlineStr"/>
       <c r="EH19" t="inlineStr"/>
       <c r="EI19" t="inlineStr"/>
-      <c r="EJ19" t="inlineStr"/>
-      <c r="EK19" t="inlineStr"/>
-      <c r="EL19" t="inlineStr"/>
-      <c r="EM19" t="inlineStr"/>
-      <c r="EN19" t="inlineStr"/>
-      <c r="EO19" t="inlineStr"/>
-      <c r="EP19" t="inlineStr"/>
-      <c r="EQ19" t="inlineStr"/>
-      <c r="ER19" t="inlineStr"/>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="ES19" t="inlineStr"/>
       <c r="ET19" t="inlineStr"/>
       <c r="EU19" t="inlineStr"/>
-      <c r="EV19" t="inlineStr"/>
-      <c r="EW19" t="inlineStr"/>
-      <c r="EX19" t="inlineStr"/>
-      <c r="EY19" t="inlineStr"/>
-      <c r="EZ19" t="inlineStr"/>
-      <c r="FA19" t="inlineStr"/>
-      <c r="FB19" t="inlineStr"/>
-      <c r="FC19" t="inlineStr"/>
-      <c r="FD19" t="inlineStr"/>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FE19" t="inlineStr"/>
       <c r="FF19" t="inlineStr"/>
       <c r="FG19" t="inlineStr"/>
-      <c r="FH19" t="inlineStr"/>
-      <c r="FI19" t="inlineStr"/>
-      <c r="FJ19" t="inlineStr"/>
-      <c r="FK19" t="inlineStr"/>
-      <c r="FL19" t="inlineStr"/>
-      <c r="FM19" t="inlineStr"/>
-      <c r="FN19" t="inlineStr"/>
-      <c r="FO19" t="inlineStr"/>
-      <c r="FP19" t="inlineStr"/>
-      <c r="FQ19" t="inlineStr"/>
-      <c r="FR19" t="inlineStr"/>
-      <c r="FS19" t="inlineStr"/>
-      <c r="FT19" t="inlineStr"/>
-      <c r="FU19" t="inlineStr"/>
-      <c r="FV19" t="inlineStr"/>
-      <c r="FW19" t="inlineStr"/>
-      <c r="FX19" t="inlineStr"/>
-      <c r="FY19" t="inlineStr"/>
-      <c r="FZ19" t="inlineStr"/>
-      <c r="GA19" t="inlineStr"/>
-      <c r="GB19" t="inlineStr"/>
+      <c r="FH19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GC19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GD19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GE19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="GF19" t="inlineStr"/>
+      <c r="GG19" t="inlineStr"/>
+      <c r="GH19" t="inlineStr"/>
+      <c r="GI19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GJ19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GK19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11851,7 +12490,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fb76b175-23ec-4697-b68e-a3e63eb472e0</t>
+          <t>ecb983da-61da-441e-9421-a71397f30b95</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -11874,7 +12513,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/fb76b17523ec4697b68ea3e63eb472e0</t>
+          <t>https://www.notion.so/ecb983da61da441e9421a71397f30b95</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -12008,7 +12647,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
         </is>
       </c>
       <c r="AR20" t="b">
@@ -12273,7 +12912,7 @@
       </c>
       <c r="DJ20" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK20" t="inlineStr">
@@ -12370,6 +13009,1089 @@
       <c r="FZ20" t="inlineStr"/>
       <c r="GA20" t="inlineStr"/>
       <c r="GB20" t="inlineStr"/>
+      <c r="GC20" t="inlineStr"/>
+      <c r="GD20" t="inlineStr"/>
+      <c r="GE20" t="inlineStr"/>
+      <c r="GF20" t="inlineStr"/>
+      <c r="GG20" t="inlineStr"/>
+      <c r="GH20" t="inlineStr"/>
+      <c r="GI20" t="inlineStr"/>
+      <c r="GJ20" t="inlineStr"/>
+      <c r="GK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>f97afc18-a5a7-4d4f-a4b4-d5fb7237d715</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/f97afc18a5a74d4fa4b4d5fb7237d715</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+        </is>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr"/>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN21" t="inlineStr"/>
+      <c r="DO21" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP21" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr"/>
+      <c r="DS21" t="inlineStr"/>
+      <c r="DT21" t="inlineStr"/>
+      <c r="DU21" t="inlineStr"/>
+      <c r="DV21" t="inlineStr"/>
+      <c r="DW21" t="inlineStr"/>
+      <c r="DX21" t="inlineStr"/>
+      <c r="DY21" t="inlineStr"/>
+      <c r="DZ21" t="inlineStr"/>
+      <c r="EA21" t="inlineStr"/>
+      <c r="EB21" t="inlineStr"/>
+      <c r="EC21" t="inlineStr"/>
+      <c r="ED21" t="inlineStr"/>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr"/>
+      <c r="EH21" t="inlineStr"/>
+      <c r="EI21" t="inlineStr"/>
+      <c r="EJ21" t="inlineStr"/>
+      <c r="EK21" t="inlineStr"/>
+      <c r="EL21" t="inlineStr"/>
+      <c r="EM21" t="inlineStr"/>
+      <c r="EN21" t="inlineStr"/>
+      <c r="EO21" t="inlineStr"/>
+      <c r="EP21" t="inlineStr"/>
+      <c r="EQ21" t="inlineStr"/>
+      <c r="ER21" t="inlineStr"/>
+      <c r="ES21" t="inlineStr"/>
+      <c r="ET21" t="inlineStr"/>
+      <c r="EU21" t="inlineStr"/>
+      <c r="EV21" t="inlineStr"/>
+      <c r="EW21" t="inlineStr"/>
+      <c r="EX21" t="inlineStr"/>
+      <c r="EY21" t="inlineStr"/>
+      <c r="EZ21" t="inlineStr"/>
+      <c r="FA21" t="inlineStr"/>
+      <c r="FB21" t="inlineStr"/>
+      <c r="FC21" t="inlineStr"/>
+      <c r="FD21" t="inlineStr"/>
+      <c r="FE21" t="inlineStr"/>
+      <c r="FF21" t="inlineStr"/>
+      <c r="FG21" t="inlineStr"/>
+      <c r="FH21" t="inlineStr"/>
+      <c r="FI21" t="inlineStr"/>
+      <c r="FJ21" t="inlineStr"/>
+      <c r="FK21" t="inlineStr"/>
+      <c r="FL21" t="inlineStr"/>
+      <c r="FM21" t="inlineStr"/>
+      <c r="FN21" t="inlineStr"/>
+      <c r="FO21" t="inlineStr"/>
+      <c r="FP21" t="inlineStr"/>
+      <c r="FQ21" t="inlineStr"/>
+      <c r="FR21" t="inlineStr"/>
+      <c r="FS21" t="inlineStr"/>
+      <c r="FT21" t="inlineStr"/>
+      <c r="FU21" t="inlineStr"/>
+      <c r="FV21" t="inlineStr"/>
+      <c r="FW21" t="inlineStr"/>
+      <c r="FX21" t="inlineStr"/>
+      <c r="FY21" t="inlineStr"/>
+      <c r="FZ21" t="inlineStr"/>
+      <c r="GA21" t="inlineStr"/>
+      <c r="GB21" t="inlineStr"/>
+      <c r="GC21" t="inlineStr"/>
+      <c r="GD21" t="inlineStr"/>
+      <c r="GE21" t="inlineStr"/>
+      <c r="GF21" t="inlineStr"/>
+      <c r="GG21" t="inlineStr"/>
+      <c r="GH21" t="inlineStr"/>
+      <c r="GI21" t="inlineStr"/>
+      <c r="GJ21" t="inlineStr"/>
+      <c r="GK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>fb76b175-23ec-4697-b68e-a3e63eb472e0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/fb76b17523ec4697b68ea3e63eb472e0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>c3e4dde0-278f-416b-9ee0-edd617b07a1e</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+        </is>
+      </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr"/>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN22" t="inlineStr"/>
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr"/>
+      <c r="DS22" t="inlineStr"/>
+      <c r="DT22" t="inlineStr"/>
+      <c r="DU22" t="inlineStr"/>
+      <c r="DV22" t="inlineStr"/>
+      <c r="DW22" t="inlineStr"/>
+      <c r="DX22" t="inlineStr"/>
+      <c r="DY22" t="inlineStr"/>
+      <c r="DZ22" t="inlineStr"/>
+      <c r="EA22" t="inlineStr"/>
+      <c r="EB22" t="inlineStr"/>
+      <c r="EC22" t="inlineStr"/>
+      <c r="ED22" t="inlineStr"/>
+      <c r="EE22" t="inlineStr"/>
+      <c r="EF22" t="inlineStr"/>
+      <c r="EG22" t="inlineStr"/>
+      <c r="EH22" t="inlineStr"/>
+      <c r="EI22" t="inlineStr"/>
+      <c r="EJ22" t="inlineStr"/>
+      <c r="EK22" t="inlineStr"/>
+      <c r="EL22" t="inlineStr"/>
+      <c r="EM22" t="inlineStr"/>
+      <c r="EN22" t="inlineStr"/>
+      <c r="EO22" t="inlineStr"/>
+      <c r="EP22" t="inlineStr"/>
+      <c r="EQ22" t="inlineStr"/>
+      <c r="ER22" t="inlineStr"/>
+      <c r="ES22" t="inlineStr"/>
+      <c r="ET22" t="inlineStr"/>
+      <c r="EU22" t="inlineStr"/>
+      <c r="EV22" t="inlineStr"/>
+      <c r="EW22" t="inlineStr"/>
+      <c r="EX22" t="inlineStr"/>
+      <c r="EY22" t="inlineStr"/>
+      <c r="EZ22" t="inlineStr"/>
+      <c r="FA22" t="inlineStr"/>
+      <c r="FB22" t="inlineStr"/>
+      <c r="FC22" t="inlineStr"/>
+      <c r="FD22" t="inlineStr"/>
+      <c r="FE22" t="inlineStr"/>
+      <c r="FF22" t="inlineStr"/>
+      <c r="FG22" t="inlineStr"/>
+      <c r="FH22" t="inlineStr"/>
+      <c r="FI22" t="inlineStr"/>
+      <c r="FJ22" t="inlineStr"/>
+      <c r="FK22" t="inlineStr"/>
+      <c r="FL22" t="inlineStr"/>
+      <c r="FM22" t="inlineStr"/>
+      <c r="FN22" t="inlineStr"/>
+      <c r="FO22" t="inlineStr"/>
+      <c r="FP22" t="inlineStr"/>
+      <c r="FQ22" t="inlineStr"/>
+      <c r="FR22" t="inlineStr"/>
+      <c r="FS22" t="inlineStr"/>
+      <c r="FT22" t="inlineStr"/>
+      <c r="FU22" t="inlineStr"/>
+      <c r="FV22" t="inlineStr"/>
+      <c r="FW22" t="inlineStr"/>
+      <c r="FX22" t="inlineStr"/>
+      <c r="FY22" t="inlineStr"/>
+      <c r="FZ22" t="inlineStr"/>
+      <c r="GA22" t="inlineStr"/>
+      <c r="GB22" t="inlineStr"/>
+      <c r="GC22" t="inlineStr"/>
+      <c r="GD22" t="inlineStr"/>
+      <c r="GE22" t="inlineStr"/>
+      <c r="GF22" t="inlineStr"/>
+      <c r="GG22" t="inlineStr"/>
+      <c r="GH22" t="inlineStr"/>
+      <c r="GI22" t="inlineStr"/>
+      <c r="GJ22" t="inlineStr"/>
+      <c r="GK22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
